--- a/2º Período/Engenharia de Requisitos/Especificacao Requisitos - UniVerse.xlsx
+++ b/2º Período/Engenharia de Requisitos/Especificacao Requisitos - UniVerse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a11b600c829974/Documentos/GitHub/PUCPR/2º Período/Engenharia de Requisitos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{C7F56374-AF93-447F-9C8D-388B352F3B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{114FE82C-D69F-443A-A04C-9CBB2C7959A5}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{C7F56374-AF93-447F-9C8D-388B352F3B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{870340B6-0CB0-498B-8E96-A0B4AFB9E66E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B26208F3-4CE7-42C5-B34F-533678CEA9CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B26208F3-4CE7-42C5-B34F-533678CEA9CB}"/>
   </bookViews>
   <sheets>
     <sheet name="EspecificaçãoCasoDeUso" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>Ator Principal</t>
   </si>
@@ -79,31 +79,200 @@
     <t>FLUXOS DE EXCEÇÃO</t>
   </si>
   <si>
-    <t>&lt;como os resultados são interpretados, quais são os valores mínimos aceitáveis&gt;</t>
-  </si>
-  <si>
     <t>INTERPRETAÇÃO DOS RESULTADOS</t>
   </si>
   <si>
-    <t>&lt;como o requisito não funcional será medido&gt;</t>
-  </si>
-  <si>
     <t>FUNÇÃO DE MEDIÇÃO</t>
   </si>
   <si>
-    <t>&lt;descrição do requisito&gt;</t>
-  </si>
-  <si>
     <t>DESCRIÇÃO DO REQUISITO</t>
   </si>
   <si>
-    <t>&lt;inserir o identificador único do requisto&gt;</t>
-  </si>
-  <si>
     <t>IDENTIFICADOR DO REQUISITO</t>
   </si>
   <si>
     <t>ESPECIFICAÇÃO DE REQUISITOS NÃO FUNCIONAIS</t>
+  </si>
+  <si>
+    <t>UC8</t>
+  </si>
+  <si>
+    <t>Aluno</t>
+  </si>
+  <si>
+    <t>Estar matrículado na faculdade</t>
+  </si>
+  <si>
+    <t>O aluno que deseja participar do sistema de carona disponível no site.</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>A1 - O aluno deseja dar carona a outros estudantes</t>
+  </si>
+  <si>
+    <t>A2 - O aluno deseja pegar carona com outrso estudantes</t>
+  </si>
+  <si>
+    <t>Aluno clica em um botão e preenche formulário necessário</t>
+  </si>
+  <si>
+    <t>Aluno estará participando do sistema de caronas</t>
+  </si>
+  <si>
+    <t>1. O aluno entra na área de Caronas</t>
+  </si>
+  <si>
+    <t>4. O sistema disponibiliza uma área para encontrar alunos que moram perto</t>
+  </si>
+  <si>
+    <t>3. O aluno realiza cadastro e informa seus interesses (A1, A2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1 O aluno informa a região onde mora e o horario que começa a aula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1 O aluno informa a região onde mora e que horas sai de casa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2 O aluno informa quanto pede pela gasolina e onde passará buscar os que irão de carona</t>
+  </si>
+  <si>
+    <t>5 O aluno entra em contato com outros alunos e conversa sobre horários e valores.</t>
+  </si>
+  <si>
+    <t>2. O sistema disponibiliza um formulário para cadastro (E1)</t>
+  </si>
+  <si>
+    <t>E1 - Os dados informados no formulário foram reprovados</t>
+  </si>
+  <si>
+    <t>UC20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empresas disponibilizam estágios para alunos da institiuição </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empresas </t>
+  </si>
+  <si>
+    <t>Trabalhador da empresa clica em "Adicionar estágio"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 O sistema disponibiliza um campo com as opções de cursos da falculdade </t>
+  </si>
+  <si>
+    <t>3 A empresa escolhe o(s) curso(s) que o estágio é relacionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 O sistema  provê um campo de texto para descrever o estagio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Adiciona especificações do estágio </t>
+  </si>
+  <si>
+    <t>6 Publica o estágio no site (E1)</t>
+  </si>
+  <si>
+    <t>E1 - O formulário está com campos obrigatórios vazios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1 O sistema informa o usuário que existem campos obrigatórios vazios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2 O sistema salva o que foi preenchido e redirieciona a tela para aonde o campo vazio se encontra</t>
+  </si>
+  <si>
+    <t>1 A empresa realiza o cadastro no site (E2)</t>
+  </si>
+  <si>
+    <t>E2 - A empresa não é aprovada por obter informações contraditórias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>UC13</t>
+  </si>
+  <si>
+    <t>O professor conversa com os alunos atraves de um fórum e tira suas duvidas</t>
+  </si>
+  <si>
+    <t>Aluno publica uma dúvida no fórum</t>
+  </si>
+  <si>
+    <t>1 O sistema disponibiliza um fórum de tira dúviadas</t>
+  </si>
+  <si>
+    <t>E1 - A dúvida tirada não foi identificada com nenhuma matéria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1 O sistema encaminha a dúvida do aluno para a aba "Não-Específicos"</t>
+  </si>
+  <si>
+    <t>Dúvida do aluno respondida</t>
+  </si>
+  <si>
+    <t>Aluno deve enviar uma questão no fórum Tira-Dúvidas</t>
+  </si>
+  <si>
+    <t>2 O sistema identifica as dúvidas de cada matéria e notifica os professores (E1)</t>
+  </si>
+  <si>
+    <t>3 O professor responde a dúvida do aluno no próprio fórum, sendo visível para todos os estudantes</t>
+  </si>
+  <si>
+    <t>Não se aplica</t>
+  </si>
+  <si>
+    <t>Estágio publicado no site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF1 </t>
+  </si>
+  <si>
+    <t>Todas as funcionalidades devem ser acessadas com até 2 cliques errados, sem a necessidade de conhecimento prévio para 
+acessar o site</t>
+  </si>
+  <si>
+    <t>Se E &lt;= 2, o requisito estará de acordo</t>
+  </si>
+  <si>
+    <t>E = C - M
+E = Cliques errados
+M = Clique mínimos para acessar X função
+C = Cliques dados pelo usuário</t>
+  </si>
+  <si>
+    <t>RNF2</t>
+  </si>
+  <si>
+    <t>RNF3</t>
+  </si>
+  <si>
+    <t>Responsividade, o sistema deverá ser compatível tanto em computadores quanto emsmartphones</t>
+  </si>
+  <si>
+    <t>Tc / Tp = d
+Tc = tempo de resposta no celular (ms)
+Tp = tempo de resposta no celular (ms)
+d = diferença de tempo de carregamento (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se 0,5 &gt; d &gt; 1,5, o sistema deferá ser comp </t>
+  </si>
+  <si>
+    <t>Se S &gt; 0, o sistema deverá funcionar normalmente</t>
+  </si>
+  <si>
+    <t>Capacidade de carga, o sistema deverá suportar 1/2 de alunos matriculados simultaneamente.</t>
+  </si>
+  <si>
+    <t>S = M/2 - A
+S = número de usuários
+M = número de alunos matriculados
+A = número de acessos simultâneos</t>
   </si>
 </sst>
 </file>
@@ -164,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -187,15 +356,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -216,11 +421,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -237,6 +449,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,524 +752,623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E3BBAE-3708-4E6D-98B5-6058DA1E256C}">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView showGridLines="0" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="80.109375" customWidth="1"/>
+    <col min="1" max="1" width="65.5546875" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="11"/>
+      <c r="B48" s="12"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="11"/>
+      <c r="B56" s="1"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="2"/>
-    </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="11"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="2"/>
-    </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="1"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="1"/>
+    </row>
+    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="B81" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="B82" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="B83" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+      <c r="B84" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+      <c r="B85" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="B86" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="11"/>
+      <c r="B87" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="11"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
-      <c r="B91" s="2"/>
+    <row r="90" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="3"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="1"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="1"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B95" s="11"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="11"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
-      <c r="B97" s="2"/>
-    </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="2"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="1"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="3"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="1"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="3"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="3"/>
-      <c r="B102" s="2"/>
+      <c r="A102" s="2"/>
+      <c r="B102" s="1"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="11"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="3"/>
-      <c r="B105" s="2"/>
-    </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="3"/>
-      <c r="B106" s="2"/>
+      <c r="A106" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" s="1"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="3"/>
-      <c r="B108" s="2"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="1"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3"/>
-      <c r="B109" s="2"/>
+      <c r="A109" s="2"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="3"/>
-      <c r="B110" s="2"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2"/>
+      <c r="B111" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A57:B57"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1062,57 +1377,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198022E6-F6CA-45D8-A902-870F624438B2}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="65.5546875" customWidth="1"/>
-    <col min="2" max="2" width="80.109375" customWidth="1"/>
+    <col min="2" max="2" width="104.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>22</v>
+      <c r="B1" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="10" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:2" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B13" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
